--- a/team_specific_matrix/South Dakota_B.xlsx
+++ b/team_specific_matrix/South Dakota_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1917098445595855</v>
+        <v>0.1961165048543689</v>
       </c>
       <c r="C2">
-        <v>0.5621761658031088</v>
+        <v>0.5572815533980583</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01036269430051814</v>
+        <v>0.007766990291262136</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.150259067357513</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08549222797927461</v>
+        <v>0.08349514563106795</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008928571428571428</v>
+        <v>0.006779661016949152</v>
       </c>
       <c r="C3">
-        <v>0.01339285714285714</v>
+        <v>0.02033898305084746</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.03728813559322034</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7410714285714286</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2053571428571428</v>
+        <v>0.1864406779661017</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1044776119402985</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7014925373134329</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1940298507462687</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05298013245033113</v>
+        <v>0.05808080808080808</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006622516556291391</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0728476821192053</v>
+        <v>0.07828282828282829</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2483443708609271</v>
+        <v>0.2297979797979798</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01986754966887417</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1324503311258278</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="R6">
-        <v>0.1059602649006623</v>
+        <v>0.1035353535353535</v>
       </c>
       <c r="S6">
-        <v>0.3609271523178808</v>
+        <v>0.3686868686868687</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1423220973782771</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01123595505617977</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E7">
-        <v>0.003745318352059925</v>
+        <v>0.005602240896358543</v>
       </c>
       <c r="F7">
-        <v>0.07865168539325842</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08614232209737828</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0149812734082397</v>
+        <v>0.02240896358543417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1835205992509363</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R7">
-        <v>0.09363295880149813</v>
+        <v>0.08123249299719888</v>
       </c>
       <c r="S7">
-        <v>0.3857677902621723</v>
+        <v>0.4005602240896359</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06460674157303371</v>
+        <v>0.06406080347448426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01544943820224719</v>
+        <v>0.01302931596091205</v>
       </c>
       <c r="E8">
-        <v>0.001404494382022472</v>
+        <v>0.001085776330076004</v>
       </c>
       <c r="F8">
-        <v>0.07443820224719101</v>
+        <v>0.0738327904451683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1306179775280899</v>
+        <v>0.1205211726384365</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01544943820224719</v>
+        <v>0.01411509229098806</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1615168539325843</v>
+        <v>0.1672095548317047</v>
       </c>
       <c r="R8">
-        <v>0.1109550561797753</v>
+        <v>0.1107491856677524</v>
       </c>
       <c r="S8">
-        <v>0.425561797752809</v>
+        <v>0.4353963083604778</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06430868167202572</v>
+        <v>0.05955334987593052</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02572347266881029</v>
+        <v>0.02233250620347394</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04823151125401929</v>
+        <v>0.04962779156327544</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1221864951768489</v>
+        <v>0.1240694789081886</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01929260450160772</v>
+        <v>0.01985111662531017</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.180064308681672</v>
+        <v>0.1811414392059553</v>
       </c>
       <c r="R9">
-        <v>0.1318327974276527</v>
+        <v>0.1389578163771712</v>
       </c>
       <c r="S9">
-        <v>0.4083601286173634</v>
+        <v>0.4044665012406948</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1035058430717863</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02392877017250974</v>
+        <v>0.0241014799154334</v>
       </c>
       <c r="E10">
-        <v>0.001112966054535337</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="F10">
-        <v>0.05843071786310518</v>
+        <v>0.06004228329809725</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1185308848080134</v>
+        <v>0.1154334038054968</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01780745687256539</v>
+        <v>0.01649048625792812</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1975514746800223</v>
+        <v>0.2029598308668076</v>
       </c>
       <c r="R10">
-        <v>0.102392877017251</v>
+        <v>0.09852008456659619</v>
       </c>
       <c r="S10">
-        <v>0.3767390094602114</v>
+        <v>0.3746300211416491</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1403940886699507</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07142857142857142</v>
+        <v>0.07330827067669173</v>
       </c>
       <c r="K11">
-        <v>0.1847290640394089</v>
+        <v>0.1766917293233083</v>
       </c>
       <c r="L11">
-        <v>0.5886699507389163</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01477832512315271</v>
+        <v>0.0112781954887218</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7242798353909465</v>
+        <v>0.7099697885196374</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2222222222222222</v>
+        <v>0.2386706948640483</v>
       </c>
       <c r="K12">
-        <v>0.00823045267489712</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="L12">
-        <v>0.0205761316872428</v>
+        <v>0.01812688821752266</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02469135802469136</v>
+        <v>0.02416918429003021</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.703125</v>
+        <v>0.7065217391304348</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.28125</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.015625</v>
+        <v>0.03260869565217391</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0119047619047619</v>
+        <v>0.01121076233183856</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1577380952380952</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.05605381165919283</v>
       </c>
       <c r="J15">
-        <v>0.3392857142857143</v>
+        <v>0.3542600896860987</v>
       </c>
       <c r="K15">
-        <v>0.09226190476190477</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01785714285714286</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05952380952380952</v>
+        <v>0.06502242152466367</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2589285714285715</v>
+        <v>0.2511210762331839</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01893939393939394</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1628787878787879</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="J16">
-        <v>0.4204545454545455</v>
+        <v>0.4176136363636364</v>
       </c>
       <c r="K16">
-        <v>0.1060606060606061</v>
+        <v>0.1107954545454545</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>0.02272727272727273</v>
       </c>
       <c r="N16">
-        <v>0.007575757575757576</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="O16">
-        <v>0.05303030303030303</v>
+        <v>0.05397727272727273</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1278409090909091</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008237232289950576</v>
+        <v>0.009864364981504316</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1927512355848435</v>
+        <v>0.1911220715166461</v>
       </c>
       <c r="I17">
-        <v>0.09555189456342669</v>
+        <v>0.09124537607891492</v>
       </c>
       <c r="J17">
-        <v>0.4168039538714992</v>
+        <v>0.4204685573366215</v>
       </c>
       <c r="K17">
-        <v>0.09225700164744646</v>
+        <v>0.09247842170160296</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01647446457990115</v>
+        <v>0.01479654747225647</v>
       </c>
       <c r="N17">
-        <v>0.001647446457990115</v>
+        <v>0.001233045622688039</v>
       </c>
       <c r="O17">
-        <v>0.07907742998352553</v>
+        <v>0.07891491985203453</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09719934102141681</v>
+        <v>0.0998766954377312</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01126760563380282</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2197183098591549</v>
+        <v>0.2263736263736264</v>
       </c>
       <c r="I18">
-        <v>0.07887323943661972</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0.4309859154929577</v>
+        <v>0.410989010989011</v>
       </c>
       <c r="K18">
-        <v>0.09577464788732394</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01971830985915493</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="N18">
-        <v>0.002816901408450704</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O18">
-        <v>0.04788732394366197</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09295774647887324</v>
+        <v>0.1010989010989011</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02154011847065159</v>
+        <v>0.01924651924651925</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.222940226171244</v>
+        <v>0.2178542178542179</v>
       </c>
       <c r="I19">
-        <v>0.09746903607969844</v>
+        <v>0.09623259623259624</v>
       </c>
       <c r="J19">
-        <v>0.3441033925686591</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="K19">
-        <v>0.09585352719439957</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0210016155088853</v>
+        <v>0.02375102375102375</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07054388799138395</v>
+        <v>0.06920556920556921</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1265481960150781</v>
+        <v>0.1261261261261261</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Dakota_B.xlsx
+++ b/team_specific_matrix/South Dakota_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1961165048543689</v>
+        <v>0.1963636363636364</v>
       </c>
       <c r="C2">
-        <v>0.5572815533980583</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007766990291262136</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1553398058252427</v>
+        <v>0.1563636363636364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08349514563106795</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006779661016949152</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C3">
-        <v>0.02033898305084746</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03728813559322034</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7491525423728813</v>
+        <v>0.7563291139240507</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1864406779661017</v>
+        <v>0.180379746835443</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.108433734939759</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6987951807228916</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1927710843373494</v>
+        <v>0.1931818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05808080808080808</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005050505050505051</v>
+        <v>0.004597701149425287</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07828282828282829</v>
+        <v>0.0735632183908046</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2297979797979798</v>
+        <v>0.232183908045977</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02525252525252525</v>
+        <v>0.02528735632183908</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1313131313131313</v>
+        <v>0.135632183908046</v>
       </c>
       <c r="R6">
-        <v>0.1035353535353535</v>
+        <v>0.1057471264367816</v>
       </c>
       <c r="S6">
-        <v>0.3686868686868687</v>
+        <v>0.367816091954023</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.1402597402597403</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008403361344537815</v>
+        <v>0.007792207792207792</v>
       </c>
       <c r="E7">
-        <v>0.005602240896358543</v>
+        <v>0.005194805194805195</v>
       </c>
       <c r="F7">
-        <v>0.06722689075630252</v>
+        <v>0.06753246753246753</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09523809523809523</v>
+        <v>0.09610389610389611</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02240896358543417</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1764705882352941</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R7">
-        <v>0.08123249299719888</v>
+        <v>0.08311688311688312</v>
       </c>
       <c r="S7">
-        <v>0.4005602240896359</v>
+        <v>0.3974025974025974</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06406080347448426</v>
+        <v>0.06389157792836399</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01302931596091205</v>
+        <v>0.01452081316553727</v>
       </c>
       <c r="E8">
-        <v>0.001085776330076004</v>
+        <v>0.000968054211035818</v>
       </c>
       <c r="F8">
-        <v>0.0738327904451683</v>
+        <v>0.07163601161665054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1205211726384365</v>
+        <v>0.1268151016456922</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01411509229098806</v>
+        <v>0.01548886737657309</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1672095548317047</v>
+        <v>0.1771539206195547</v>
       </c>
       <c r="R8">
-        <v>0.1107491856677524</v>
+        <v>0.1113262342691191</v>
       </c>
       <c r="S8">
-        <v>0.4353963083604778</v>
+        <v>0.4181994191674734</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05955334987593052</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02233250620347394</v>
+        <v>0.01991150442477876</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04962779156327544</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1240694789081886</v>
+        <v>0.1393805309734513</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01985111662531017</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1811414392059553</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="R9">
-        <v>0.1389578163771712</v>
+        <v>0.1349557522123894</v>
       </c>
       <c r="S9">
-        <v>0.4044665012406948</v>
+        <v>0.3938053097345133</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.105708245243129</v>
+        <v>0.1008371385083714</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0241014799154334</v>
+        <v>0.02245053272450533</v>
       </c>
       <c r="E10">
-        <v>0.002114164904862579</v>
+        <v>0.001902587519025875</v>
       </c>
       <c r="F10">
-        <v>0.06004228329809725</v>
+        <v>0.05974124809741248</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1154334038054968</v>
+        <v>0.1328006088280061</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01649048625792812</v>
+        <v>0.01788432267884323</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2029598308668076</v>
+        <v>0.2050989345509893</v>
       </c>
       <c r="R10">
-        <v>0.09852008456659619</v>
+        <v>0.09817351598173515</v>
       </c>
       <c r="S10">
-        <v>0.3746300211416491</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.131578947368421</v>
+        <v>0.125886524822695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07330827067669173</v>
+        <v>0.0726950354609929</v>
       </c>
       <c r="K11">
-        <v>0.1766917293233083</v>
+        <v>0.1684397163120567</v>
       </c>
       <c r="L11">
-        <v>0.6071428571428571</v>
+        <v>0.6223404255319149</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0112781954887218</v>
+        <v>0.01063829787234043</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7099697885196374</v>
+        <v>0.7103064066852368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2386706948640483</v>
+        <v>0.2423398328690808</v>
       </c>
       <c r="K12">
-        <v>0.00906344410876133</v>
+        <v>0.008356545961002786</v>
       </c>
       <c r="L12">
-        <v>0.01812688821752266</v>
+        <v>0.01671309192200557</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02416918429003021</v>
+        <v>0.02228412256267409</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7065217391304348</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03260869565217391</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01121076233183856</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1569506726457399</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="I15">
-        <v>0.05605381165919283</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J15">
-        <v>0.3542600896860987</v>
+        <v>0.3510204081632653</v>
       </c>
       <c r="K15">
-        <v>0.08520179372197309</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02017937219730942</v>
+        <v>0.01836734693877551</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06502242152466367</v>
+        <v>0.06734693877551021</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2511210762331839</v>
+        <v>0.2530612244897959</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01704545454545454</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1590909090909091</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I16">
-        <v>0.08522727272727272</v>
+        <v>0.08157894736842106</v>
       </c>
       <c r="J16">
-        <v>0.4176136363636364</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="K16">
-        <v>0.1107954545454545</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02272727272727273</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="N16">
-        <v>0.005681818181818182</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="O16">
-        <v>0.05397727272727273</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1278409090909091</v>
+        <v>0.1210526315789474</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009864364981504316</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1911220715166461</v>
+        <v>0.1989130434782609</v>
       </c>
       <c r="I17">
-        <v>0.09124537607891492</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="J17">
-        <v>0.4204685573366215</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="K17">
-        <v>0.09247842170160296</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01479654747225647</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="N17">
-        <v>0.001233045622688039</v>
+        <v>0.00108695652173913</v>
       </c>
       <c r="O17">
-        <v>0.07891491985203453</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0998766954377312</v>
+        <v>0.09456521739130434</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01538461538461539</v>
+        <v>0.01386138613861386</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2263736263736264</v>
+        <v>0.2257425742574257</v>
       </c>
       <c r="I18">
-        <v>0.08571428571428572</v>
+        <v>0.09108910891089109</v>
       </c>
       <c r="J18">
-        <v>0.410989010989011</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="K18">
-        <v>0.08571428571428572</v>
+        <v>0.08514851485148515</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01758241758241758</v>
+        <v>0.01584158415841584</v>
       </c>
       <c r="N18">
-        <v>0.002197802197802198</v>
+        <v>0.00198019801980198</v>
       </c>
       <c r="O18">
-        <v>0.05494505494505494</v>
+        <v>0.05544554455445545</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1010989010989011</v>
+        <v>0.09504950495049505</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01924651924651925</v>
+        <v>0.01839785358374856</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2178542178542179</v>
+        <v>0.2230739747029513</v>
       </c>
       <c r="I19">
-        <v>0.09623259623259624</v>
+        <v>0.09658873131467996</v>
       </c>
       <c r="J19">
-        <v>0.3484848484848485</v>
+        <v>0.3499425067075508</v>
       </c>
       <c r="K19">
-        <v>0.0990990990990991</v>
+        <v>0.09773859716366425</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02375102375102375</v>
+        <v>0.02491376006132618</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06920556920556921</v>
+        <v>0.06822537370640092</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1261261261261261</v>
+        <v>0.121119202759678</v>
       </c>
     </row>
   </sheetData>
